--- a/RECC_ModelConfig_List.xlsx
+++ b/RECC_ModelConfig_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="RECC_Config_IRP_V1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Include_REStrategy_MaterialSubstitution</t>
-  </si>
-  <si>
-    <t>Include_REStrategy_Downsizing</t>
   </si>
   <si>
     <t>Include_REStrategy_ReUse</t>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>MSU</t>
-  </si>
-  <si>
-    <t>DOS</t>
   </si>
   <si>
     <t>RUS</t>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Folder names (created by ODYM-RECC)</t>
+  </si>
+  <si>
+    <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+  </si>
+  <si>
+    <t>ULD</t>
   </si>
 </sst>
 </file>
@@ -539,11 +539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A9"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,42 +558,42 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -614,30 +614,30 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -646,34 +646,34 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -684,34 +684,34 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -722,34 +722,34 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -760,34 +760,34 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -798,34 +798,34 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -833,37 +833,37 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -871,37 +871,37 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -909,37 +909,37 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -947,37 +947,37 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -985,4478 +985,4478 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5468,8 +5468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5482,42 +5482,42 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -5538,30 +5538,30 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -5570,34 +5570,34 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5609,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5620,42 +5620,42 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -5676,233 +5676,233 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/RECC_ModelConfig_List.xlsx
+++ b/RECC_ModelConfig_List.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="RECC_Config_IRP_V1" sheetId="1" r:id="rId1"/>
-    <sheet name="SingleTestRun" sheetId="2" r:id="rId2"/>
-    <sheet name="GroupTestRun" sheetId="3" r:id="rId3"/>
+    <sheet name="Evaluate_Config_IRP_V1" sheetId="4" r:id="rId2"/>
+    <sheet name="SingleTestRun" sheetId="2" r:id="rId3"/>
+    <sheet name="GroupTestRun" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="196">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -165,34 +166,451 @@
     <t>G7_RES_Sensitivity</t>
   </si>
   <si>
-    <t>UK_2019_6_14__22_12_47</t>
-  </si>
-  <si>
-    <t>UK_2019_6_14__22_14_23_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_14__22_15_44_FYI_EoL_MSU_DOS_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_14__22_17_3_FYI_EoL_MSU_DOS_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>UK_2019_6_14__22_18_23_FYI_EoL_MSU_DOS_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Folder names (created by ODYM-RECC)</t>
-  </si>
-  <si>
     <t>Include_REStrategy_UsingLessMaterialByDesign</t>
   </si>
   <si>
     <t>ULD</t>
+  </si>
+  <si>
+    <t>G7Test</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>EU28</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Regional scope</t>
+  </si>
+  <si>
+    <t>Type (cascade vs. scenario)</t>
+  </si>
+  <si>
+    <t>ENDOFLIST</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_51_14_PassVehs</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_51_52_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_52_32_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_53_12_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_53_54_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_54_37_ResBlds</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_55_19_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_55_59_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_56_40_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_17__22_57_21_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__22_58_4_PassVehs</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_0_49_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_1_32_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_2_14_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_2_57_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_3_39_ResBlds</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_4_23_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_5_7_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_5_49_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_17__23_6_31_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_7_15_PassVehs</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_10_3_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_10_47_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_11_30_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_12_11_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_12_53_ResBlds</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_13_36_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_14_19_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_15_2_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_17__23_15_45_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_16_29_PassVehs</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_17_12_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_17_56_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_18_39_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_19_22_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_20_5_ResBlds</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_20_46_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_21_30_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_22_13_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_17__23_22_56_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_23_37_PassVehs</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_26_23_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_27_7_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_27_49_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_28_31_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_29_12_ResBlds</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_29_55_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_30_38_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_31_21_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_17__23_32_3_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_32_46_PassVehs</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_35_32_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_36_16_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_36_59_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_37_41_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_38_24_ResBlds</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_39_7_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_39_50_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_40_33_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_17__23_41_17_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_41_59_PassVehs</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_42_43_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_43_27_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_44_11_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_44_54_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_45_38_ResBlds</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_46_21_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_47_4_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_47_48_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_17__23_48_32_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_17__23_49_17_PassVehs</t>
+  </si>
+  <si>
+    <t>G7_2019_6_17__23_51_41_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_17__23_54_4_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_17__23_56_26_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_17__23_58_48_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__0_1_10_ResBlds</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__0_3_31_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__0_5_53_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__0_8_14_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__6_15_24_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_17_34_PassVehs</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_22_39_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_25_28_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_28_19_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_31_9_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_34_0_ResBlds</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_36_52_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_39_43_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_42_37_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_18__6_45_31_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_48_27_PassVehs</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_49_13_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_49_57_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_50_39_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_51_24_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_52_9_ResBlds</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_52_52_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_53_35_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_54_18_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_18__6_55_2_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__6_55_46_PassVehs</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__6_58_31_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__6_59_16_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__7_0_1_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__7_0_49_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__7_1_34_ResBlds</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__7_2_18_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__7_3_2_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__7_3_47_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_18__7_4_30_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_5_15_PassVehs_FYI</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_7_35_PassVehs_EoL</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_9_59_PassVehs_MSU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_12_21_PassVehs_ULD</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_14_44_PassVehs_RUS</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_17_8_PassVehs_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_19_31_PassVehs_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_21_53_PassVehs</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_24_14_ResBlds_FYI</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_26_37_ResBlds_EoL</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_29_0_ResBlds_MSU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_31_24_ResBlds_ULD</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_33_49_ResBlds_RUS</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_36_13_ResBlds_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_38_37_ResBlds_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_18__7_41_0_ResBlds</t>
+  </si>
+  <si>
+    <t>Folder names (copy past from Python list 'ResultFolders')</t>
+  </si>
+  <si>
+    <t>!!! No-RES reference case was inserted here from previous model run for G7 above!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +669,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,23 +958,23 @@
   <dimension ref="A2:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="53.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.68359375" customWidth="1"/>
+    <col min="2" max="2" width="23.3125" customWidth="1"/>
+    <col min="3" max="3" width="17.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.1015625" customWidth="1"/>
+    <col min="5" max="5" width="11.1015625" customWidth="1"/>
+    <col min="6" max="6" width="9.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" t="s">
         <v>16</v>
       </c>
@@ -570,7 +988,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -591,10 +1009,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -635,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -676,7 +1092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -714,7 +1130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -752,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -790,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -828,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -866,7 +1282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -904,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -942,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -980,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1059,7 +1475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +1551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -1287,7 +1703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -1325,7 +1741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -1363,7 +1779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -1401,7 +1817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -1518,7 +1934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
         <v>31</v>
       </c>
@@ -1594,7 +2010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1632,7 +2048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -1670,7 +2086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -1746,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -1784,7 +2200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -1863,7 +2279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -1901,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1939,7 +2355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -1977,7 +2393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +2431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
         <v>33</v>
       </c>
@@ -2053,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2091,7 +2507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
         <v>33</v>
       </c>
@@ -2129,7 +2545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" t="s">
         <v>33</v>
       </c>
@@ -2167,7 +2583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>34</v>
       </c>
@@ -2208,7 +2624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
         <v>35</v>
       </c>
@@ -2246,7 +2662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" t="s">
         <v>35</v>
       </c>
@@ -2284,7 +2700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
         <v>35</v>
       </c>
@@ -2322,7 +2738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
         <v>35</v>
       </c>
@@ -2360,7 +2776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" t="s">
         <v>35</v>
       </c>
@@ -2398,7 +2814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" t="s">
         <v>35</v>
       </c>
@@ -2436,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" t="s">
         <v>35</v>
       </c>
@@ -2474,7 +2890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
         <v>35</v>
       </c>
@@ -2512,7 +2928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
         <v>35</v>
       </c>
@@ -2550,7 +2966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
         <v>36</v>
       </c>
@@ -2591,7 +3007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
         <v>37</v>
       </c>
@@ -2629,7 +3045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
         <v>37</v>
       </c>
@@ -2667,7 +3083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
         <v>37</v>
       </c>
@@ -2705,7 +3121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
         <v>37</v>
       </c>
@@ -2743,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -2781,7 +3197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" t="s">
         <v>37</v>
       </c>
@@ -2819,7 +3235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +3273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" t="s">
         <v>37</v>
       </c>
@@ -2895,7 +3311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
         <v>37</v>
       </c>
@@ -2933,7 +3349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>38</v>
       </c>
@@ -2974,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
         <v>39</v>
       </c>
@@ -3012,7 +3428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" t="s">
         <v>39</v>
       </c>
@@ -3050,7 +3466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" t="s">
         <v>39</v>
       </c>
@@ -3088,7 +3504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
         <v>39</v>
       </c>
@@ -3126,7 +3542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
         <v>39</v>
       </c>
@@ -3164,7 +3580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" t="s">
         <v>39</v>
       </c>
@@ -3202,7 +3618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>39</v>
       </c>
@@ -3240,7 +3656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>39</v>
       </c>
@@ -3278,7 +3694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>39</v>
       </c>
@@ -3316,7 +3732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>40</v>
       </c>
@@ -3357,7 +3773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" t="s">
         <v>41</v>
       </c>
@@ -3395,7 +3811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" t="s">
         <v>41</v>
       </c>
@@ -3433,7 +3849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" t="s">
         <v>41</v>
       </c>
@@ -3471,7 +3887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" t="s">
         <v>41</v>
       </c>
@@ -3509,7 +3925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" t="s">
         <v>41</v>
       </c>
@@ -3547,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -3585,7 +4001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" t="s">
         <v>41</v>
       </c>
@@ -3623,7 +4039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" t="s">
         <v>41</v>
       </c>
@@ -3661,7 +4077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" t="s">
         <v>41</v>
       </c>
@@ -3699,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
         <v>42</v>
       </c>
@@ -3740,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" t="s">
         <v>43</v>
       </c>
@@ -3778,7 +4194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" t="s">
         <v>43</v>
       </c>
@@ -3816,7 +4232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" t="s">
         <v>43</v>
       </c>
@@ -3854,7 +4270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" t="s">
         <v>43</v>
       </c>
@@ -3892,7 +4308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" t="s">
         <v>43</v>
       </c>
@@ -3930,7 +4346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" t="s">
         <v>43</v>
       </c>
@@ -3968,7 +4384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" t="s">
         <v>43</v>
       </c>
@@ -4006,7 +4422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" t="s">
         <v>43</v>
       </c>
@@ -4044,7 +4460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
         <v>43</v>
       </c>
@@ -4082,7 +4498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" t="s">
         <v>44</v>
       </c>
@@ -4123,7 +4539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" t="s">
         <v>45</v>
       </c>
@@ -4161,7 +4577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" t="s">
         <v>45</v>
       </c>
@@ -4199,7 +4615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" t="s">
         <v>45</v>
       </c>
@@ -4237,7 +4653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" t="s">
         <v>45</v>
       </c>
@@ -4275,7 +4691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" t="s">
         <v>45</v>
       </c>
@@ -4313,7 +4729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" t="s">
         <v>45</v>
       </c>
@@ -4351,7 +4767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" t="s">
         <v>45</v>
       </c>
@@ -4389,7 +4805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C102" t="s">
         <v>45</v>
       </c>
@@ -4427,7 +4843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" t="s">
         <v>45</v>
       </c>
@@ -4465,7 +4881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" t="s">
         <v>46</v>
       </c>
@@ -4506,7 +4922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" t="s">
         <v>47</v>
       </c>
@@ -4544,7 +4960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" t="s">
         <v>47</v>
       </c>
@@ -4582,7 +4998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" t="s">
         <v>47</v>
       </c>
@@ -4620,7 +5036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" t="s">
         <v>47</v>
       </c>
@@ -4658,7 +5074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C109" t="s">
         <v>47</v>
       </c>
@@ -4696,7 +5112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C110" t="s">
         <v>47</v>
       </c>
@@ -4734,7 +5150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" t="s">
         <v>47</v>
       </c>
@@ -4772,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +5226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C113" t="s">
         <v>47</v>
       </c>
@@ -4848,7 +5264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>48</v>
       </c>
@@ -4889,7 +5305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C115" t="s">
         <v>41</v>
       </c>
@@ -4927,7 +5343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C116" t="s">
         <v>41</v>
       </c>
@@ -4965,7 +5381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C117" t="s">
         <v>41</v>
       </c>
@@ -5003,7 +5419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C118" t="s">
         <v>41</v>
       </c>
@@ -5041,7 +5457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C119" t="s">
         <v>41</v>
       </c>
@@ -5079,7 +5495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C120" t="s">
         <v>41</v>
       </c>
@@ -5117,7 +5533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C121" t="s">
         <v>41</v>
       </c>
@@ -5155,7 +5571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C122" t="s">
         <v>41</v>
       </c>
@@ -5193,7 +5609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C123" t="s">
         <v>41</v>
       </c>
@@ -5231,7 +5647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C124" t="s">
         <v>41</v>
       </c>
@@ -5269,7 +5685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C125" t="s">
         <v>41</v>
       </c>
@@ -5307,7 +5723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" t="s">
         <v>41</v>
       </c>
@@ -5345,7 +5761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C127" t="s">
         <v>41</v>
       </c>
@@ -5383,7 +5799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C128" t="s">
         <v>41</v>
       </c>
@@ -5421,7 +5837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C129" t="s">
         <v>41</v>
       </c>
@@ -5466,21 +5882,774 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="64.578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D106" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D109" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D121" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D122" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D125" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D126" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="53.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="24.20703125" customWidth="1"/>
+    <col min="3" max="3" width="22.1015625" customWidth="1"/>
+    <col min="4" max="4" width="16.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" t="s">
         <v>16</v>
       </c>
@@ -5494,7 +6663,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -5515,10 +6684,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5538,7 +6705,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -5559,15 +6726,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -5588,7 +6755,7 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -5605,20 +6772,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" t="s">
         <v>16</v>
       </c>
@@ -5632,7 +6799,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -5653,10 +6820,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5676,7 +6841,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -5697,10 +6862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -5741,12 +6903,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -5782,12 +6941,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -5823,12 +6979,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -5864,12 +7017,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>

--- a/RECC_ModelConfig_List.xlsx
+++ b/RECC_ModelConfig_List.xlsx
@@ -9,15 +9,18 @@
   <sheets>
     <sheet name="RECC_Config_IRP_V1" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluate_Config_IRP_V1" sheetId="4" r:id="rId2"/>
-    <sheet name="SingleTestRun" sheetId="2" r:id="rId3"/>
-    <sheet name="GroupTestRun" sheetId="3" r:id="rId4"/>
+    <sheet name="_" sheetId="5" r:id="rId3"/>
+    <sheet name="SingleTestRun" sheetId="2" r:id="rId4"/>
+    <sheet name="__" sheetId="6" r:id="rId5"/>
+    <sheet name="GroupTestRun" sheetId="3" r:id="rId6"/>
+    <sheet name="Evaluate_GroupTestRun" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="205">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -223,388 +226,415 @@
     <t>ENDOFLIST</t>
   </si>
   <si>
-    <t>Germany_2019_6_17__22_51_14_PassVehs</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_51_52_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_52_32_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_53_12_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_53_54_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_54_37_ResBlds</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_55_19_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_55_59_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_56_40_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_17__22_57_21_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__22_58_4_PassVehs</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_0_49_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_1_32_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_2_14_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_2_57_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_3_39_ResBlds</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_4_23_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_5_7_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_5_49_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_17__23_6_31_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_7_15_PassVehs</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_10_3_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_10_47_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_11_30_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_12_11_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_12_53_ResBlds</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_13_36_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_14_19_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_15_2_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_17__23_15_45_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_16_29_PassVehs</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_17_12_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_17_56_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_18_39_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_19_22_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_20_5_ResBlds</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_20_46_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_21_30_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_22_13_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_17__23_22_56_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_23_37_PassVehs</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_26_23_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_27_7_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_27_49_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_28_31_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_29_12_ResBlds</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_29_55_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_30_38_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_31_21_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_17__23_32_3_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_32_46_PassVehs</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_35_32_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_36_16_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_36_59_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_37_41_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_38_24_ResBlds</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_39_7_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_39_50_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_40_33_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_17__23_41_17_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_41_59_PassVehs</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_42_43_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_43_27_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_44_11_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_44_54_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_45_38_ResBlds</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_46_21_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_47_4_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_47_48_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_17__23_48_32_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_17__23_49_17_PassVehs</t>
-  </si>
-  <si>
-    <t>G7_2019_6_17__23_51_41_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_17__23_54_4_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_17__23_56_26_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_17__23_58_48_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__0_1_10_ResBlds</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__0_3_31_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__0_5_53_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__0_8_14_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__6_15_24_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_17_34_PassVehs</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_22_39_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_25_28_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_28_19_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_31_9_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_34_0_ResBlds</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_36_52_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_39_43_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_42_37_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_18__6_45_31_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_48_27_PassVehs</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_49_13_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_49_57_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_50_39_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_51_24_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_52_9_ResBlds</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_52_52_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_53_35_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_54_18_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_18__6_55_2_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__6_55_46_PassVehs</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__6_58_31_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__6_59_16_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__7_0_1_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__7_0_49_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__7_1_34_ResBlds</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__7_2_18_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__7_3_2_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__7_3_47_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_18__7_4_30_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_5_15_PassVehs_FYI</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_7_35_PassVehs_EoL</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_9_59_PassVehs_MSU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_12_21_PassVehs_ULD</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_14_44_PassVehs_RUS</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_17_8_PassVehs_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_19_31_PassVehs_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_21_53_PassVehs</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_24_14_ResBlds_FYI</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_26_37_ResBlds_EoL</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_29_0_ResBlds_MSU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_31_24_ResBlds_ULD</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_33_49_ResBlds_RUS</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_36_13_ResBlds_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_38_37_ResBlds_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_18__7_41_0_ResBlds</t>
-  </si>
-  <si>
     <t>Folder names (copy past from Python list 'ResultFolders')</t>
   </si>
   <si>
-    <t>!!! No-RES reference case was inserted here from previous model run for G7 above!</t>
+    <t>Italy_2019_6_19__8_57_53_PassVehs</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__8_58_32_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__8_59_12_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__8_59_53_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__9_0_37_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__9_1_20_ResBlds</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__9_2_2_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__9_2_46_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__9_3_30_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__9_4_14_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_18_41_PassVehs</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_19_35_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_20_24_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_21_7_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_21_50_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_22_35_ResBlds</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_23_19_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_24_4_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_24_48_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_19__10_25_33_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_26_17_PassVehs</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_27_2_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_27_46_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_28_30_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_29_15_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_30_0_ResBlds</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_30_45_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_31_29_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_32_14_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_19__10_32_58_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_33_42_PassVehs</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_34_26_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_35_11_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_35_56_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_36_40_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_37_25_ResBlds</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_38_9_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_38_54_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_39_48_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_19__10_40_40_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_41_27_PassVehs</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_42_11_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_42_56_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_43_41_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_44_25_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_45_10_ResBlds</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_45_54_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_46_39_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_47_23_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_19__10_48_8_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_48_53_PassVehs</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_49_37_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_50_22_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_51_6_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_51_52_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_52_39_ResBlds</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_53_25_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_54_11_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_54_57_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_19__10_55_43_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__10_56_30_PassVehs</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__10_57_16_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__10_58_3_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__10_58_49_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__10_59_36_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__11_0_22_ResBlds</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__11_1_9_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__11_1_55_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__11_2_41_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_19__11_3_27_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_4_13_PassVehs</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_5_0_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_5_46_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_6_32_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_7_19_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_8_6_ResBlds</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_8_52_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_9_38_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_10_25_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_19__11_11_11_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_11_57_PassVehs</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_14_26_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_16_55_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_19_26_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_21_57_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_24_29_ResBlds</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_27_0_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_29_32_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_32_3_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__11_34_34_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_37_5_PassVehs</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_40_9_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_43_13_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_46_18_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_49_22_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_52_26_ResBlds</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_55_30_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__11_58_34_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__12_1_38_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_19__12_4_42_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_7_46_PassVehs</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_8_34_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_9_22_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_10_10_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_10_58_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_11_46_ResBlds</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_12_34_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_13_22_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_14_10_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_19__12_14_58_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_15_45_PassVehs</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_16_33_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_17_21_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_18_8_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_18_56_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_19_44_ResBlds</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_20_31_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_21_20_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_22_8_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_19__12_22_56_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_23_44_PassVehs_FYI</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_26_14_PassVehs_EoL</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_28_46_PassVehs_MSU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_31_17_PassVehs_ULD</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_33_47_PassVehs_RUS</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_36_18_PassVehs_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_38_48_PassVehs_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_41_19_PassVehs_NoR</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_43_49_ResBlds_FYI</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_46_20_ResBlds_EoL</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_48_50_ResBlds_MSU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_51_21_ResBlds_ULD</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_53_51_ResBlds_RUS</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_56_22_ResBlds_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__12_58_52_ResBlds_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_19__13_1_23_ResBlds_NoR</t>
   </si>
 </sst>
 </file>
@@ -955,13 +985,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N129"/>
+  <dimension ref="A2:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E123" sqref="E123:N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1086,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1124,7 +1154,7 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
@@ -1162,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
@@ -1200,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -1238,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" t="s">
         <v>15</v>
@@ -1276,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" t="s">
         <v>15</v>
@@ -1314,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
         <v>15</v>
@@ -1352,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -1390,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12" t="s">
         <v>15</v>
@@ -1428,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N13" t="s">
         <v>15</v>
@@ -1469,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N14" t="s">
         <v>15</v>
@@ -1507,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
         <v>15</v>
@@ -1545,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N16" t="s">
         <v>15</v>
@@ -1583,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N17" t="s">
         <v>15</v>
@@ -1621,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
         <v>15</v>
@@ -1659,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N19" t="s">
         <v>15</v>
@@ -1697,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N20" t="s">
         <v>15</v>
@@ -1735,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N21" t="s">
         <v>15</v>
@@ -1773,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N22" t="s">
         <v>15</v>
@@ -1811,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N23" t="s">
         <v>15</v>
@@ -1852,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
@@ -1890,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
@@ -1928,7 +1958,7 @@
         <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N26" t="s">
         <v>15</v>
@@ -1966,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N27" t="s">
         <v>15</v>
@@ -2004,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N28" t="s">
         <v>15</v>
@@ -2042,7 +2072,7 @@
         <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N29" t="s">
         <v>15</v>
@@ -2080,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N30" t="s">
         <v>15</v>
@@ -2118,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="M31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N31" t="s">
         <v>15</v>
@@ -2156,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N32" t="s">
         <v>15</v>
@@ -2194,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="M33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N33" t="s">
         <v>15</v>
@@ -2235,7 +2265,7 @@
         <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N34" t="s">
         <v>15</v>
@@ -2273,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="M35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35" t="s">
         <v>15</v>
@@ -2311,7 +2341,7 @@
         <v>14</v>
       </c>
       <c r="M36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N36" t="s">
         <v>15</v>
@@ -2349,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N37" t="s">
         <v>15</v>
@@ -2387,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38" t="s">
         <v>15</v>
@@ -2425,7 +2455,7 @@
         <v>14</v>
       </c>
       <c r="M39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N39" t="s">
         <v>15</v>
@@ -2463,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="M40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N40" t="s">
         <v>15</v>
@@ -2501,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="M41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N41" t="s">
         <v>15</v>
@@ -2539,7 +2569,7 @@
         <v>14</v>
       </c>
       <c r="M42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42" t="s">
         <v>15</v>
@@ -2577,7 +2607,7 @@
         <v>14</v>
       </c>
       <c r="M43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N43" t="s">
         <v>15</v>
@@ -2618,7 +2648,7 @@
         <v>14</v>
       </c>
       <c r="M44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N44" t="s">
         <v>15</v>
@@ -2656,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="M45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45" t="s">
         <v>15</v>
@@ -2694,7 +2724,7 @@
         <v>14</v>
       </c>
       <c r="M46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N46" t="s">
         <v>15</v>
@@ -2732,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N47" t="s">
         <v>15</v>
@@ -2770,7 +2800,7 @@
         <v>14</v>
       </c>
       <c r="M48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N48" t="s">
         <v>15</v>
@@ -2808,7 +2838,7 @@
         <v>14</v>
       </c>
       <c r="M49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N49" t="s">
         <v>15</v>
@@ -2846,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="M50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N50" t="s">
         <v>15</v>
@@ -2884,7 +2914,7 @@
         <v>14</v>
       </c>
       <c r="M51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N51" t="s">
         <v>15</v>
@@ -2922,7 +2952,7 @@
         <v>14</v>
       </c>
       <c r="M52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N52" t="s">
         <v>15</v>
@@ -2960,7 +2990,7 @@
         <v>14</v>
       </c>
       <c r="M53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N53" t="s">
         <v>15</v>
@@ -3001,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="M54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N54" t="s">
         <v>15</v>
@@ -3039,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="M55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N55" t="s">
         <v>15</v>
@@ -3077,7 +3107,7 @@
         <v>14</v>
       </c>
       <c r="M56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N56" t="s">
         <v>15</v>
@@ -3115,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="M57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N57" t="s">
         <v>15</v>
@@ -3153,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="M58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N58" t="s">
         <v>15</v>
@@ -3191,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="M59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N59" t="s">
         <v>15</v>
@@ -3229,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="M60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N60" t="s">
         <v>15</v>
@@ -3267,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="M61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N61" t="s">
         <v>15</v>
@@ -3305,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="M62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N62" t="s">
         <v>15</v>
@@ -3343,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="M63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N63" t="s">
         <v>15</v>
@@ -3384,7 +3414,7 @@
         <v>14</v>
       </c>
       <c r="M64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N64" t="s">
         <v>15</v>
@@ -3422,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="M65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N65" t="s">
         <v>15</v>
@@ -3460,7 +3490,7 @@
         <v>14</v>
       </c>
       <c r="M66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N66" t="s">
         <v>15</v>
@@ -3498,7 +3528,7 @@
         <v>14</v>
       </c>
       <c r="M67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N67" t="s">
         <v>15</v>
@@ -3536,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N68" t="s">
         <v>15</v>
@@ -3574,7 +3604,7 @@
         <v>14</v>
       </c>
       <c r="M69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N69" t="s">
         <v>15</v>
@@ -3612,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="M70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N70" t="s">
         <v>15</v>
@@ -3650,7 +3680,7 @@
         <v>14</v>
       </c>
       <c r="M71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N71" t="s">
         <v>15</v>
@@ -3688,7 +3718,7 @@
         <v>14</v>
       </c>
       <c r="M72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N72" t="s">
         <v>15</v>
@@ -3726,7 +3756,7 @@
         <v>14</v>
       </c>
       <c r="M73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N73" t="s">
         <v>15</v>
@@ -3767,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="M74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N74" t="s">
         <v>15</v>
@@ -3805,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="M75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N75" t="s">
         <v>15</v>
@@ -3843,7 +3873,7 @@
         <v>14</v>
       </c>
       <c r="M76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N76" t="s">
         <v>15</v>
@@ -3881,7 +3911,7 @@
         <v>14</v>
       </c>
       <c r="M77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N77" t="s">
         <v>15</v>
@@ -3919,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="M78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N78" t="s">
         <v>15</v>
@@ -3957,7 +3987,7 @@
         <v>14</v>
       </c>
       <c r="M79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N79" t="s">
         <v>15</v>
@@ -3995,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="M80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N80" t="s">
         <v>15</v>
@@ -4033,7 +4063,7 @@
         <v>14</v>
       </c>
       <c r="M81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N81" t="s">
         <v>15</v>
@@ -4071,7 +4101,7 @@
         <v>14</v>
       </c>
       <c r="M82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N82" t="s">
         <v>15</v>
@@ -4109,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="M83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N83" t="s">
         <v>15</v>
@@ -4150,7 +4180,7 @@
         <v>14</v>
       </c>
       <c r="M84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N84" t="s">
         <v>15</v>
@@ -4188,7 +4218,7 @@
         <v>14</v>
       </c>
       <c r="M85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N85" t="s">
         <v>15</v>
@@ -4226,7 +4256,7 @@
         <v>14</v>
       </c>
       <c r="M86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N86" t="s">
         <v>15</v>
@@ -4264,7 +4294,7 @@
         <v>14</v>
       </c>
       <c r="M87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N87" t="s">
         <v>15</v>
@@ -4302,7 +4332,7 @@
         <v>14</v>
       </c>
       <c r="M88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N88" t="s">
         <v>15</v>
@@ -4340,7 +4370,7 @@
         <v>14</v>
       </c>
       <c r="M89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N89" t="s">
         <v>15</v>
@@ -4378,7 +4408,7 @@
         <v>14</v>
       </c>
       <c r="M90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N90" t="s">
         <v>15</v>
@@ -4416,7 +4446,7 @@
         <v>14</v>
       </c>
       <c r="M91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N91" t="s">
         <v>15</v>
@@ -4454,7 +4484,7 @@
         <v>14</v>
       </c>
       <c r="M92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N92" t="s">
         <v>15</v>
@@ -4492,7 +4522,7 @@
         <v>14</v>
       </c>
       <c r="M93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N93" t="s">
         <v>15</v>
@@ -4533,7 +4563,7 @@
         <v>14</v>
       </c>
       <c r="M94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N94" t="s">
         <v>15</v>
@@ -4571,7 +4601,7 @@
         <v>14</v>
       </c>
       <c r="M95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N95" t="s">
         <v>15</v>
@@ -4609,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="M96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N96" t="s">
         <v>15</v>
@@ -4647,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="M97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N97" t="s">
         <v>15</v>
@@ -4685,7 +4715,7 @@
         <v>14</v>
       </c>
       <c r="M98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N98" t="s">
         <v>15</v>
@@ -4723,7 +4753,7 @@
         <v>14</v>
       </c>
       <c r="M99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N99" t="s">
         <v>15</v>
@@ -4761,7 +4791,7 @@
         <v>14</v>
       </c>
       <c r="M100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N100" t="s">
         <v>15</v>
@@ -4799,7 +4829,7 @@
         <v>14</v>
       </c>
       <c r="M101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N101" t="s">
         <v>15</v>
@@ -4837,7 +4867,7 @@
         <v>14</v>
       </c>
       <c r="M102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N102" t="s">
         <v>15</v>
@@ -4875,7 +4905,7 @@
         <v>14</v>
       </c>
       <c r="M103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N103" t="s">
         <v>15</v>
@@ -4916,7 +4946,7 @@
         <v>14</v>
       </c>
       <c r="M104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N104" t="s">
         <v>15</v>
@@ -4954,7 +4984,7 @@
         <v>14</v>
       </c>
       <c r="M105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N105" t="s">
         <v>15</v>
@@ -4992,7 +5022,7 @@
         <v>14</v>
       </c>
       <c r="M106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N106" t="s">
         <v>15</v>
@@ -5030,7 +5060,7 @@
         <v>14</v>
       </c>
       <c r="M107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N107" t="s">
         <v>15</v>
@@ -5068,7 +5098,7 @@
         <v>14</v>
       </c>
       <c r="M108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N108" t="s">
         <v>15</v>
@@ -5106,7 +5136,7 @@
         <v>14</v>
       </c>
       <c r="M109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N109" t="s">
         <v>15</v>
@@ -5144,7 +5174,7 @@
         <v>14</v>
       </c>
       <c r="M110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N110" t="s">
         <v>15</v>
@@ -5182,7 +5212,7 @@
         <v>14</v>
       </c>
       <c r="M111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N111" t="s">
         <v>15</v>
@@ -5220,7 +5250,7 @@
         <v>14</v>
       </c>
       <c r="M112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N112" t="s">
         <v>15</v>
@@ -5258,7 +5288,7 @@
         <v>14</v>
       </c>
       <c r="M113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N113" t="s">
         <v>15</v>
@@ -5275,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -5299,7 +5329,7 @@
         <v>14</v>
       </c>
       <c r="M114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N114" t="s">
         <v>15</v>
@@ -5313,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -5337,7 +5367,7 @@
         <v>14</v>
       </c>
       <c r="M115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N115" t="s">
         <v>15</v>
@@ -5354,10 +5384,10 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
@@ -5375,7 +5405,7 @@
         <v>14</v>
       </c>
       <c r="M116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N116" t="s">
         <v>15</v>
@@ -5395,10 +5425,10 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -5413,7 +5443,7 @@
         <v>14</v>
       </c>
       <c r="M117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N117" t="s">
         <v>15</v>
@@ -5436,10 +5466,10 @@
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
@@ -5451,7 +5481,7 @@
         <v>14</v>
       </c>
       <c r="M118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N118" t="s">
         <v>15</v>
@@ -5477,10 +5507,10 @@
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K119" t="s">
         <v>14</v>
@@ -5489,7 +5519,7 @@
         <v>14</v>
       </c>
       <c r="M119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N119" t="s">
         <v>15</v>
@@ -5518,16 +5548,16 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L120" t="s">
         <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N120" t="s">
         <v>15</v>
@@ -5559,16 +5589,16 @@
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L121" t="s">
         <v>14</v>
       </c>
       <c r="M121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -5576,10 +5606,10 @@
         <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -5606,7 +5636,7 @@
         <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -5620,7 +5650,7 @@
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
@@ -5641,7 +5671,7 @@
         <v>14</v>
       </c>
       <c r="M123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N123" t="s">
         <v>15</v>
@@ -5655,13 +5685,13 @@
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
@@ -5679,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="M124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N124" t="s">
         <v>15</v>
@@ -5696,13 +5726,13 @@
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s">
         <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I125" t="s">
         <v>14</v>
@@ -5717,7 +5747,7 @@
         <v>14</v>
       </c>
       <c r="M125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N125" t="s">
         <v>15</v>
@@ -5737,13 +5767,13 @@
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H126" t="s">
         <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J126" t="s">
         <v>14</v>
@@ -5755,7 +5785,7 @@
         <v>14</v>
       </c>
       <c r="M126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N126" t="s">
         <v>15</v>
@@ -5778,13 +5808,13 @@
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K127" t="s">
         <v>14</v>
@@ -5793,7 +5823,7 @@
         <v>14</v>
       </c>
       <c r="M127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N127" t="s">
         <v>15</v>
@@ -5819,19 +5849,19 @@
         <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L128" t="s">
         <v>14</v>
       </c>
       <c r="M128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N128" t="s">
         <v>15</v>
@@ -5860,7 +5890,7 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K129" t="s">
         <v>14</v>
@@ -5869,9 +5899,85 @@
         <v>14</v>
       </c>
       <c r="M129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>15</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130" t="s">
+        <v>15</v>
+      </c>
+      <c r="N130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131" t="s">
+        <v>14</v>
+      </c>
+      <c r="N131" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5882,10 +5988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E130"/>
+  <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5901,7 +6007,7 @@
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -5912,52 +6018,52 @@
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -5968,52 +6074,52 @@
         <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6024,52 +6130,52 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6080,52 +6186,52 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6136,52 +6242,52 @@
         <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D46" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6192,52 +6298,52 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D53" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D60" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6248,52 +6354,52 @@
         <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D67" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6304,52 +6410,52 @@
         <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D75" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D76" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D79" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6360,52 +6466,52 @@
         <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D83" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D84" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D85" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D86" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D87" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6416,55 +6522,55 @@
         <v>63</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D101" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>62</v>
       </c>
@@ -6472,55 +6578,55 @@
         <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D103" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D104" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D105" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D106" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D108" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D109" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D110" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D111" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" t="s">
         <v>59</v>
       </c>
@@ -6528,98 +6634,92 @@
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D113" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D114" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D115" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D116" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D117" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D118" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D119" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D120" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D121" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D125" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6635,10 +6735,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6761,7 +6875,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -6772,12 +6886,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H15" sqref="H15:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6864,10 +6992,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -6897,7 +7025,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -6905,7 +7033,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -6935,7 +7063,7 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
@@ -6943,10 +7071,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -6958,7 +7086,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -6973,7 +7101,7 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
@@ -6981,10 +7109,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -7005,13 +7133,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -7019,7 +7147,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -7049,10 +7177,287 @@
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/RECC_ModelConfig_List.xlsx
+++ b/RECC_ModelConfig_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RECC_Config_IRP_V1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="205">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -987,11 +987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E123" sqref="E123:N123"/>
+      <selection pane="bottomRight" activeCell="B114" sqref="B114:N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5990,7 +5990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A104" workbookViewId="0">
       <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
@@ -6902,10 +6902,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N13"/>
+  <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7371,6 +7371,693 @@
       </c>
       <c r="N13" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/RECC_ModelConfig_List.xlsx
+++ b/RECC_ModelConfig_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RECC_Config_IRP_V1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="GroupTestRun" sheetId="3" r:id="rId6"/>
     <sheet name="Evaluate_GroupTestRun" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="207">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -175,9 +175,6 @@
     <t>ULD</t>
   </si>
   <si>
-    <t>G7Test</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -229,412 +226,421 @@
     <t>Folder names (copy past from Python list 'ResultFolders')</t>
   </si>
   <si>
-    <t>Italy_2019_6_19__8_57_53_PassVehs</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__8_58_32_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__8_59_12_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__8_59_53_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__9_0_37_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__9_1_20_ResBlds</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__9_2_2_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__9_2_46_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__9_3_30_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__9_4_14_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_18_41_PassVehs</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_19_35_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_20_24_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_21_7_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_21_50_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_22_35_ResBlds</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_23_19_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_24_4_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_24_48_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_2019_6_19__10_25_33_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_26_17_PassVehs</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_27_2_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_27_46_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_28_30_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_29_15_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_30_0_ResBlds</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_30_45_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_31_29_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_32_14_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy_2019_6_19__10_32_58_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_33_42_PassVehs</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_34_26_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_35_11_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_35_56_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_36_40_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_37_25_ResBlds</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_38_9_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_38_54_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_39_48_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France_2019_6_19__10_40_40_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_41_27_PassVehs</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_42_11_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_42_56_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_43_41_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_44_25_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_45_10_ResBlds</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_45_54_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_46_39_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_47_23_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK_2019_6_19__10_48_8_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_48_53_PassVehs</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_49_37_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_50_22_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_51_6_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_51_52_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_52_39_ResBlds</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_53_25_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_54_11_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_54_57_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Japan_2019_6_19__10_55_43_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__10_56_30_PassVehs</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__10_57_16_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__10_58_3_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__10_58_49_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__10_59_36_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__11_0_22_ResBlds</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__11_1_9_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__11_1_55_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__11_2_41_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Canada_2019_6_19__11_3_27_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_4_13_PassVehs</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_5_0_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_5_46_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_6_32_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_7_19_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_8_6_ResBlds</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_8_52_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_9_38_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_10_25_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>USA_2019_6_19__11_11_11_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_11_57_PassVehs</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_14_26_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_16_55_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_19_26_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_21_57_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_24_29_ResBlds</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_27_0_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_29_32_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_32_3_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__11_34_34_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_37_5_PassVehs</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_40_9_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_43_13_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_46_18_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_49_22_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_52_26_ResBlds</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_55_30_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__11_58_34_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__12_1_38_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28_2019_6_19__12_4_42_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_7_46_PassVehs</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_8_34_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_9_22_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_10_10_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_10_58_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_11_46_ResBlds</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_12_34_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_13_22_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_14_10_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>India_2019_6_19__12_14_58_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_15_45_PassVehs</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_16_33_PassVehs_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_17_21_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_18_8_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_18_56_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_19_44_ResBlds</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_20_31_ResBlds_FYI_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_21_20_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_22_8_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>China_2019_6_19__12_22_56_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_23_44_PassVehs_FYI</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_26_14_PassVehs_EoL</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_28_46_PassVehs_MSU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_31_17_PassVehs_ULD</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_33_47_PassVehs_RUS</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_36_18_PassVehs_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_38_48_PassVehs_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_41_19_PassVehs_NoR</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_43_49_ResBlds_FYI</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_46_20_ResBlds_EoL</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_48_50_ResBlds_MSU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_51_21_ResBlds_ULD</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_53_51_ResBlds_RUS</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_56_22_ResBlds_LTE</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__12_58_52_ResBlds_MIU</t>
-  </si>
-  <si>
-    <t>G7_2019_6_19__13_1_23_ResBlds_NoR</t>
+    <t>USABuildingTest</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_9_52_PassVehs</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_10_31_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_11_12_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_11_55_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_12_37_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_13_19_ResBlds</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_14_3_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_14_49_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_15_37_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__19_16_23_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_26_59_PassVehs</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_29_53_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_30_39_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_31_25_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_32_9_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_32_54_ResBlds</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_33_37_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_34_23_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_35_7_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_2019_6_25__19_35_51_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_36_39_PassVehs</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_39_45_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_40_31_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_41_17_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_42_3_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_42_49_ResBlds</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_43_35_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_44_22_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_45_8_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy_2019_6_25__19_45_54_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_46_40_PassVehs</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_49_45_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_50_33_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_51_22_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_52_15_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_53_1_ResBlds</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_53_48_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_54_34_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_55_20_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France_2019_6_25__19_56_7_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__19_56_54_PassVehs</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__19_59_58_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_0_43_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_1_29_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_2_15_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_3_1_ResBlds</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_3_48_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_4_34_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_5_20_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK_2019_6_25__20_6_6_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_6_52_PassVehs</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_9_53_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_10_39_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_11_25_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_12_11_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_12_58_ResBlds</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_13_43_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_14_29_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_15_15_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Japan_2019_6_25__20_16_1_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_16_47_PassVehs</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_20_1_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_20_52_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_21_38_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_22_24_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_23_10_ResBlds</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_23_56_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_24_42_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_25_28_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Canada_2019_6_25__20_26_13_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_27_0_PassVehs</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_27_45_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_28_31_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_29_17_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_30_3_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_30_49_ResBlds</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_31_35_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_32_21_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_33_7_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA_2019_6_25__20_33_53_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_34_39_PassVehs</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_39_35_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_42_2_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_44_29_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_46_56_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_49_22_ResBlds</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_51_48_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_54_14_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_56_40_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__20_59_6_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_1_32_PassVehs</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_7_2_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_10_0_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_12_57_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_15_54_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_18_51_ResBlds</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_21_48_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_24_44_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_27_42_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28_2019_6_25__21_30_38_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_33_34_PassVehs</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_36_36_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_37_22_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_38_8_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_38_54_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_39_40_ResBlds</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_40_26_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_41_12_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_41_59_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>India_2019_6_25__21_42_45_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_43_36_PassVehs</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_46_38_PassVehs_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_47_24_PassVehs_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_48_10_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_48_56_PassVehs_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_49_44_ResBlds</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_50_31_ResBlds_FYI_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_51_18_ResBlds_FYI_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_52_4_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>China_2019_6_25__21_52_51_ResBlds_FYI_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__21_53_37_PassVehs</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__21_56_2_PassVehs_FYI</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__21_58_28_PassVehs_EoL</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_0_54_PassVehs_MSU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_3_19_PassVehs_ULD</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_5_44_PassVehs_RUS</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_8_10_PassVehs_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_10_35_PassVehs_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_13_0_PassVehs_NoR</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_15_25_ResBlds</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_17_50_ResBlds_FYI</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_20_15_ResBlds_EoL</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_22_40_ResBlds_MSU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_25_5_ResBlds_ULD</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_27_29_ResBlds_RUS</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_29_55_ResBlds_LTE</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_32_19_ResBlds_MIU</t>
+  </si>
+  <si>
+    <t>G7_2019_6_25__22_34_44_ResBlds_NoR</t>
   </si>
 </sst>
 </file>
@@ -988,10 +994,10 @@
   <dimension ref="A2:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B114" sqref="B114:N131"/>
+      <selection pane="bottomRight" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5990,8 +5996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6001,21 +6007,21 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
@@ -6068,10 +6074,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
@@ -6124,10 +6130,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
@@ -6180,10 +6186,10 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
@@ -6236,10 +6242,10 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
@@ -6292,10 +6298,10 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
         <v>129</v>
@@ -6348,10 +6354,10 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
         <v>139</v>
@@ -6404,10 +6410,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
         <v>149</v>
@@ -6460,10 +6466,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
         <v>159</v>
@@ -6516,10 +6522,10 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D92" t="s">
         <v>169</v>
@@ -6572,10 +6578,10 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" t="s">
         <v>62</v>
-      </c>
-      <c r="C102" t="s">
-        <v>63</v>
       </c>
       <c r="D102" t="s">
         <v>179</v>
@@ -6628,103 +6634,103 @@
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D116" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D118" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D119" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D121" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D125" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D127" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6752,7 +6758,7 @@
   <dimension ref="A2:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6842,10 +6848,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -6869,7 +6875,7 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -6902,15 +6908,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N31"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.3125" customWidth="1"/>
+    <col min="2" max="2" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.05078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6992,10 +7001,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -7033,7 +7042,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7071,7 +7080,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7109,7 +7118,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -7147,7 +7156,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -7185,7 +7194,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -7223,7 +7232,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -7261,7 +7270,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -7299,7 +7308,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -7337,7 +7346,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -7371,693 +7380,6 @@
       </c>
       <c r="N13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8070,28 +7392,28 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -8144,7 +7466,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
